--- a/integrationesting.xlsx
+++ b/integrationesting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s524988\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s524988\Desktop\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="98">
   <si>
     <t>Test case number</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>basic user change password page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edit details should be saved in to the database and displayed     </t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,7 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D118" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1549,7 @@
         <v>94</v>
       </c>
       <c r="D129" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E129" t="s">
         <v>87</v>
